--- a/report/結合テスト結果.xlsx
+++ b/report/結合テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="5" r:id="rId1"/>
@@ -1465,13 +1465,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11078,7 +11078,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>21</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -11150,7 +11150,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>22</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -11222,7 +11222,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>15</a:t>
+            <a:t>23</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -12838,8 +12838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12955,14 +12955,14 @@
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -12973,28 +12973,28 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13536,7 +13536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
@@ -13645,7 +13645,7 @@
       <c r="A4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -13697,6 +13697,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -13854,35 +13869,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13904,9 +13894,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/結合テスト結果.xlsx
+++ b/report/結合テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="5" r:id="rId1"/>
@@ -5141,7 +5141,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>39</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -5167,10 +5167,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>551321</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7036</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>6975</xdr:rowOff>
+      <xdr:rowOff>20582</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="451526" cy="342786"/>
     <xdr:sp macro="" textlink="">
@@ -5180,7 +5180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1922921" y="2064375"/>
+          <a:off x="2048107" y="2143296"/>
           <a:ext cx="451526" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5213,7 +5213,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>40</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -5252,7 +5252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2750404" y="2067097"/>
+          <a:off x="2728633" y="2132411"/>
           <a:ext cx="451526" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5285,7 +5285,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>15</a:t>
+            <a:t>41</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
             <a:ln w="0">
@@ -12704,7 +12704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
@@ -12838,7 +12838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -13536,7 +13536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
@@ -13697,21 +13697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -13869,10 +13854,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13894,19 +13904,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/結合テスト結果.xlsx
+++ b/report/結合テスト結果.xlsx
@@ -12838,8 +12838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13697,6 +13697,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -13854,35 +13869,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13904,9 +13894,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/結合テスト結果.xlsx
+++ b/report/結合テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>Ctrl+;</t>
     <phoneticPr fontId="1"/>
@@ -1301,6 +1301,117 @@
       <t>をクリック</t>
     </r>
   </si>
+  <si>
+    <t>6-8は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16-20は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入者編集を行う際の遷移の流れを表しています。</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定ボタンを押して戻るボタンを押した時の遷移の流れを表しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>34-38は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24-26は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタンを押して戻るボタンを押した時の遷移の流れを表しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入者ページ</t>
+    <rPh sb="0" eb="3">
+      <t>カニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金ページ</t>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1430,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1472,6 +1583,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1500,14 +1618,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>39254</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67328</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67329</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12471,22 +12589,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -12704,7 +12869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
@@ -12838,7 +13003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
@@ -13014,8 +13179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K100"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13140,8 +13305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13216,8 +13381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13336,7 +13501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
@@ -13422,7 +13587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
@@ -13536,7 +13701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
@@ -13622,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13697,21 +13862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -13869,10 +14019,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13894,19 +14069,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>